--- a/assets/files/Marketing.xlsx
+++ b/assets/files/Marketing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Domain</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Total score in all Levels</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -229,11 +232,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -264,6 +278,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,10 +584,12 @@
     <col min="11" max="11" width="37" style="1" customWidth="1"/>
     <col min="12" max="12" width="24.36328125" style="1" customWidth="1"/>
     <col min="13" max="13" width="30.81640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -585,7 +604,7 @@
       <c r="J1" s="13"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -628,8 +647,11 @@
       <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="O2" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E4" s="8">
         <v>4</v>
       </c>
@@ -661,8 +683,15 @@
         <f>SUM(E4:M4)</f>
         <v>35</v>
       </c>
+      <c r="O4" s="2">
+        <v>102</v>
+      </c>
+      <c r="P4" s="2">
+        <f>102*2</f>
+        <v>204</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -696,8 +725,15 @@
         <f t="shared" ref="N5:N6" si="0">SUM(E5:M5)</f>
         <v>15</v>
       </c>
+      <c r="O5" s="3">
+        <f>N5/102*100</f>
+        <v>14.705882352941178</v>
+      </c>
+      <c r="P5" s="16">
+        <v>7.35</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -717,11 +753,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="O6" s="3">
+        <f>N6/102*100</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/files/Marketing.xlsx
+++ b/assets/files/Marketing.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="XPfy-LEVEL1" sheetId="2" r:id="rId1"/>
+    <sheet name="XPfy-LEVEL2" sheetId="3" r:id="rId2"/>
+    <sheet name="XPfy-LEVEL3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Domain</t>
   </si>
@@ -87,6 +89,63 @@
   </si>
   <si>
     <t>Total score in all Levels</t>
+  </si>
+  <si>
+    <t>Shorter Stories (1-3 days)</t>
+  </si>
+  <si>
+    <t>Dev + Test Roles</t>
+  </si>
+  <si>
+    <t>Weekly Retrospectives</t>
+  </si>
+  <si>
+    <t>Automated Data Mapping</t>
+  </si>
+  <si>
+    <t>Automated Code Packaging</t>
+  </si>
+  <si>
+    <t>Automated Smoke tests post Deploy in SIT</t>
+  </si>
+  <si>
+    <t>Automated Transformation Tests</t>
+  </si>
+  <si>
+    <t>Automated Sprint Levels</t>
+  </si>
+  <si>
+    <t>Self Demos Sprint Level</t>
+  </si>
+  <si>
+    <t>Build To Test Traceability</t>
+  </si>
+  <si>
+    <t>BDD Based Stories</t>
+  </si>
+  <si>
+    <t>Dev +DA+ETL roles</t>
+  </si>
+  <si>
+    <t>Daily Retrospectives</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Automated Deploy and smoke tests in Prod</t>
+  </si>
+  <si>
+    <t>Complete TDD Implementation</t>
+  </si>
+  <si>
+    <t>Automated Story Level</t>
+  </si>
+  <si>
+    <t>Self Demos Weekly</t>
+  </si>
+  <si>
+    <t>Story to Build Traceability</t>
   </si>
 </sst>
 </file>
@@ -565,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:P6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,20 +776,25 @@
         <v>3</v>
       </c>
       <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>7</v>
+      </c>
       <c r="M5" s="11">
         <v>2</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" ref="N5:N6" si="0">SUM(E5:M5)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O5" s="3">
         <f>N5/102*100</f>
-        <v>14.705882352941178</v>
+        <v>22.549019607843139</v>
       </c>
       <c r="P5" s="16">
-        <v>7.35</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -768,4 +832,368 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>7</v>
+      </c>
+      <c r="L4" s="8">
+        <v>7</v>
+      </c>
+      <c r="M4" s="8">
+        <v>4</v>
+      </c>
+      <c r="N4" s="8">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <f>SUM(E4:N4)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="10"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="P5:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="1"/>
+    <col min="15" max="15" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="8">
+        <v>4</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>10</v>
+      </c>
+      <c r="L4" s="8">
+        <v>7</v>
+      </c>
+      <c r="M4" s="8">
+        <v>5</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2">
+        <f>SUM(E4:N4)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="10"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="P5:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>